--- a/data/pca/factorExposure/factorExposure_2010-07-14.xlsx
+++ b/data/pca/factorExposure/factorExposure_2010-07-14.xlsx
@@ -723,19 +723,19 @@
         <v>5</v>
       </c>
       <c r="B2">
-        <v>0.01713950410171767</v>
+        <v>-0.01669745163250902</v>
       </c>
       <c r="C2">
-        <v>0.001318308736487486</v>
+        <v>-0.0009166572024486538</v>
       </c>
       <c r="D2">
-        <v>-0.007546134766669917</v>
+        <v>-0.006889107671645345</v>
       </c>
       <c r="E2">
-        <v>0.02547319773849611</v>
+        <v>0.002423715393940668</v>
       </c>
       <c r="F2">
-        <v>0.02262926617193577</v>
+        <v>0.01127620059604327</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -763,19 +763,19 @@
         <v>7</v>
       </c>
       <c r="B4">
-        <v>0.1205649094170055</v>
+        <v>-0.09502735861600099</v>
       </c>
       <c r="C4">
-        <v>-0.09065400322436463</v>
+        <v>-0.01816524258694482</v>
       </c>
       <c r="D4">
-        <v>-0.002624862622234495</v>
+        <v>-0.07700488703590123</v>
       </c>
       <c r="E4">
-        <v>-0.06471185280073515</v>
+        <v>-0.02749770772025957</v>
       </c>
       <c r="F4">
-        <v>0.1564553644177751</v>
+        <v>-0.04140179796087627</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -803,19 +803,19 @@
         <v>9</v>
       </c>
       <c r="B6">
-        <v>0.1281112472139233</v>
+        <v>-0.1508042287210684</v>
       </c>
       <c r="C6">
-        <v>-0.06471259318554508</v>
+        <v>-0.02437526211788394</v>
       </c>
       <c r="D6">
-        <v>0.01367830472093933</v>
+        <v>0.01746670122426215</v>
       </c>
       <c r="E6">
-        <v>-0.03186199902198616</v>
+        <v>-0.01160633767876131</v>
       </c>
       <c r="F6">
-        <v>0.03176830270546215</v>
+        <v>-0.03807801621883249</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -823,19 +823,19 @@
         <v>10</v>
       </c>
       <c r="B7">
-        <v>0.07064867646939321</v>
+        <v>-0.06325265907598543</v>
       </c>
       <c r="C7">
-        <v>-0.08546555983942555</v>
+        <v>-0.0008988207231482743</v>
       </c>
       <c r="D7">
-        <v>-0.007944201079888327</v>
+        <v>-0.0498229542050801</v>
       </c>
       <c r="E7">
-        <v>-0.02021895479352977</v>
+        <v>-0.01356380768820697</v>
       </c>
       <c r="F7">
-        <v>0.01917458087090866</v>
+        <v>-0.05745679454207332</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -843,19 +843,19 @@
         <v>11</v>
       </c>
       <c r="B8">
-        <v>0.03903404332775777</v>
+        <v>-0.05977212859494604</v>
       </c>
       <c r="C8">
-        <v>-0.01023987813604318</v>
+        <v>0.01269784109246718</v>
       </c>
       <c r="D8">
-        <v>-0.01320765150014507</v>
+        <v>-0.02732682231359527</v>
       </c>
       <c r="E8">
-        <v>-0.007446209544585108</v>
+        <v>-0.0103695887895791</v>
       </c>
       <c r="F8">
-        <v>0.1254834417209569</v>
+        <v>0.02123352918574651</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -863,19 +863,19 @@
         <v>12</v>
       </c>
       <c r="B9">
-        <v>0.0873250718392054</v>
+        <v>-0.07325006370104017</v>
       </c>
       <c r="C9">
-        <v>-0.06195847940084858</v>
+        <v>-0.01502761285003462</v>
       </c>
       <c r="D9">
-        <v>0.008990318600108779</v>
+        <v>-0.07422667976632526</v>
       </c>
       <c r="E9">
-        <v>-0.05197513146615172</v>
+        <v>-0.02048025771912755</v>
       </c>
       <c r="F9">
-        <v>0.1246233654926532</v>
+        <v>-0.06168210000280013</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -883,19 +883,19 @@
         <v>13</v>
       </c>
       <c r="B10">
-        <v>0.126767609246875</v>
+        <v>-0.09102122876260144</v>
       </c>
       <c r="C10">
-        <v>0.1833767070067868</v>
+        <v>-0.01277491666663001</v>
       </c>
       <c r="D10">
-        <v>-0.0170887725974234</v>
+        <v>0.1730595456227802</v>
       </c>
       <c r="E10">
-        <v>0.007803650942055111</v>
+        <v>0.03375855922853917</v>
       </c>
       <c r="F10">
-        <v>-0.05881088461148017</v>
+        <v>0.05042746139643655</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -903,19 +903,19 @@
         <v>14</v>
       </c>
       <c r="B11">
-        <v>0.06571791996037925</v>
+        <v>-0.08885404992686292</v>
       </c>
       <c r="C11">
-        <v>-0.05646418014274251</v>
+        <v>-0.01421589261895199</v>
       </c>
       <c r="D11">
-        <v>0.0447013589952198</v>
+        <v>-0.1050312174890533</v>
       </c>
       <c r="E11">
-        <v>-0.04147648157994417</v>
+        <v>-0.03986856844305325</v>
       </c>
       <c r="F11">
-        <v>0.09500865494809144</v>
+        <v>-0.0287727104383198</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -923,19 +923,19 @@
         <v>15</v>
       </c>
       <c r="B12">
-        <v>0.07527219641028915</v>
+        <v>-0.09423224187382424</v>
       </c>
       <c r="C12">
-        <v>-0.06674054887032869</v>
+        <v>-0.01203103114270468</v>
       </c>
       <c r="D12">
-        <v>0.05572301467970703</v>
+        <v>-0.1087698897102735</v>
       </c>
       <c r="E12">
-        <v>-0.08748888318164728</v>
+        <v>-0.03801414813905709</v>
       </c>
       <c r="F12">
-        <v>0.1008421367564225</v>
+        <v>-0.03237444706323268</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -943,19 +943,19 @@
         <v>16</v>
       </c>
       <c r="B13">
-        <v>0.04242162703828314</v>
+        <v>-0.04408161485525505</v>
       </c>
       <c r="C13">
-        <v>-0.04046693662333674</v>
+        <v>-0.0044801817388674</v>
       </c>
       <c r="D13">
-        <v>-0.02257550027160896</v>
+        <v>-0.03640350642452912</v>
       </c>
       <c r="E13">
-        <v>-0.02402283185692728</v>
+        <v>0.01442504985086933</v>
       </c>
       <c r="F13">
-        <v>0.0568036572417443</v>
+        <v>-0.02260428356867487</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -963,19 +963,19 @@
         <v>17</v>
       </c>
       <c r="B14">
-        <v>0.04743630380232361</v>
+        <v>-0.02213555606654793</v>
       </c>
       <c r="C14">
-        <v>-0.02990976832783299</v>
+        <v>-0.01523379818365511</v>
       </c>
       <c r="D14">
-        <v>0.004367789222420994</v>
+        <v>-0.02678065955297691</v>
       </c>
       <c r="E14">
-        <v>-0.02798247555734548</v>
+        <v>-0.01535815724670094</v>
       </c>
       <c r="F14">
-        <v>0.05086735410059953</v>
+        <v>-0.02654836743361823</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -983,19 +983,19 @@
         <v>18</v>
       </c>
       <c r="B15">
-        <v>0.02739372580280692</v>
+        <v>-0.03263508973333357</v>
       </c>
       <c r="C15">
-        <v>-0.01600730029538193</v>
+        <v>-0.006336423510597912</v>
       </c>
       <c r="D15">
-        <v>-0.07268995231256596</v>
+        <v>-0.03699912438601399</v>
       </c>
       <c r="E15">
-        <v>0.02543272334522579</v>
+        <v>-0.006877398963166388</v>
       </c>
       <c r="F15">
-        <v>0.02388562782786345</v>
+        <v>-0.03557800658176948</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -1003,19 +1003,19 @@
         <v>19</v>
       </c>
       <c r="B16">
-        <v>0.0797938497669593</v>
+        <v>-0.07621991120052374</v>
       </c>
       <c r="C16">
-        <v>-0.07254027496197582</v>
+        <v>-0.006000240373566073</v>
       </c>
       <c r="D16">
-        <v>0.04205949446631107</v>
+        <v>-0.1070437203672185</v>
       </c>
       <c r="E16">
-        <v>-0.06620790416895404</v>
+        <v>-0.05574232031552016</v>
       </c>
       <c r="F16">
-        <v>0.08610889733195398</v>
+        <v>-0.03713317218719043</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -1043,19 +1043,19 @@
         <v>21</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>-0.0160551424094917</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>0.004415838375951889</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>-0.02644390669984086</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>0.01098390200103149</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>0.03122313211490451</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1083,19 +1083,19 @@
         <v>23</v>
       </c>
       <c r="B20">
-        <v>0.044689233710441</v>
+        <v>-0.06190874664740798</v>
       </c>
       <c r="C20">
-        <v>-0.02315639493775329</v>
+        <v>-0.003557001017741035</v>
       </c>
       <c r="D20">
-        <v>-0.03528849655138599</v>
+        <v>-0.06312947919236012</v>
       </c>
       <c r="E20">
-        <v>-0.05450372800131828</v>
+        <v>-0.04929944168477769</v>
       </c>
       <c r="F20">
-        <v>0.05008163777978061</v>
+        <v>-0.03376184944787856</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1103,19 +1103,19 @@
         <v>24</v>
       </c>
       <c r="B21">
-        <v>0.03221729777308467</v>
+        <v>-0.03794615646099527</v>
       </c>
       <c r="C21">
-        <v>-0.02487656831216677</v>
+        <v>-0.008325483181912676</v>
       </c>
       <c r="D21">
-        <v>0.01116871982683769</v>
+        <v>-0.03439525167560838</v>
       </c>
       <c r="E21">
-        <v>-0.02524513087250086</v>
+        <v>0.01265916273881261</v>
       </c>
       <c r="F21">
-        <v>0.06206839319853595</v>
+        <v>0.01551320091095399</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1123,19 +1123,19 @@
         <v>25</v>
       </c>
       <c r="B22">
-        <v>0.05737282964023676</v>
+        <v>-0.04299160377842229</v>
       </c>
       <c r="C22">
-        <v>-0.0278894139190328</v>
+        <v>-0.0008893984746246908</v>
       </c>
       <c r="D22">
-        <v>-0.6498504040119847</v>
+        <v>0.001132039959029787</v>
       </c>
       <c r="E22">
-        <v>-0.09827119491806321</v>
+        <v>-0.03519649436238571</v>
       </c>
       <c r="F22">
-        <v>-0.07225045946408934</v>
+        <v>0.02596540299300675</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -1143,19 +1143,19 @@
         <v>26</v>
       </c>
       <c r="B23">
-        <v>0.05795196259666362</v>
+        <v>-0.04302899049922948</v>
       </c>
       <c r="C23">
-        <v>-0.02907064406647498</v>
+        <v>-0.0009124142930721478</v>
       </c>
       <c r="D23">
-        <v>-0.6519758487842786</v>
+        <v>0.0009546282987328139</v>
       </c>
       <c r="E23">
-        <v>-0.1006943711451687</v>
+        <v>-0.03556061010814192</v>
       </c>
       <c r="F23">
-        <v>-0.06770338693447264</v>
+        <v>0.02539211236744596</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -1163,19 +1163,19 @@
         <v>27</v>
       </c>
       <c r="B24">
-        <v>0.07865479805715</v>
+        <v>-0.08202953362037009</v>
       </c>
       <c r="C24">
-        <v>-0.07023532942796304</v>
+        <v>-0.005906000051751976</v>
       </c>
       <c r="D24">
-        <v>0.03544863164644503</v>
+        <v>-0.1095698513831925</v>
       </c>
       <c r="E24">
-        <v>-0.06400933054311043</v>
+        <v>-0.04347718486995374</v>
       </c>
       <c r="F24">
-        <v>0.08720091790984845</v>
+        <v>-0.02914083539751444</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1183,19 +1183,19 @@
         <v>28</v>
       </c>
       <c r="B25">
-        <v>0.07691015804092285</v>
+        <v>-0.0867841113377851</v>
       </c>
       <c r="C25">
-        <v>-0.05286780960664489</v>
+        <v>-0.008219583784381469</v>
       </c>
       <c r="D25">
-        <v>0.05564505216795058</v>
+        <v>-0.09461494413893665</v>
       </c>
       <c r="E25">
-        <v>-0.06539751357868756</v>
+        <v>-0.02528093789352325</v>
       </c>
       <c r="F25">
-        <v>0.09526610964310427</v>
+        <v>-0.03878559907169596</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1203,19 +1203,19 @@
         <v>29</v>
       </c>
       <c r="B26">
-        <v>0.04297554182004478</v>
+        <v>-0.0568610309173866</v>
       </c>
       <c r="C26">
-        <v>-0.01870514337084027</v>
+        <v>-0.0155627807681564</v>
       </c>
       <c r="D26">
-        <v>-0.01499849363866818</v>
+        <v>-0.02551480445067228</v>
       </c>
       <c r="E26">
-        <v>-0.09211403232476285</v>
+        <v>-0.02336903982856829</v>
       </c>
       <c r="F26">
-        <v>0.04165455535464899</v>
+        <v>-0.002805751751569649</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1243,19 +1243,19 @@
         <v>31</v>
       </c>
       <c r="B28">
-        <v>0.1511655006666867</v>
+        <v>-0.1363623500783128</v>
       </c>
       <c r="C28">
-        <v>0.2769039800202522</v>
+        <v>-0.01008238899903768</v>
       </c>
       <c r="D28">
-        <v>0.004115118347595061</v>
+        <v>0.2782287102620967</v>
       </c>
       <c r="E28">
-        <v>-0.01147533390837564</v>
+        <v>0.06761758026992036</v>
       </c>
       <c r="F28">
-        <v>0.01271561112017691</v>
+        <v>-0.04949924827118426</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1263,19 +1263,19 @@
         <v>32</v>
       </c>
       <c r="B29">
-        <v>0.04177303994826754</v>
+        <v>-0.02729529979050161</v>
       </c>
       <c r="C29">
-        <v>-0.02579991683300048</v>
+        <v>-0.00950151886396247</v>
       </c>
       <c r="D29">
-        <v>0.005788363976660339</v>
+        <v>-0.02503161004194585</v>
       </c>
       <c r="E29">
-        <v>-0.02800662504297884</v>
+        <v>-0.007947306644912513</v>
       </c>
       <c r="F29">
-        <v>0.04254256173136023</v>
+        <v>0.006791411053136798</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1283,19 +1283,19 @@
         <v>33</v>
       </c>
       <c r="B30">
-        <v>0.08667763569797106</v>
+        <v>-0.06611722593948847</v>
       </c>
       <c r="C30">
-        <v>-0.05417030857992391</v>
+        <v>-0.008722284349734636</v>
       </c>
       <c r="D30">
-        <v>0.01324849851191635</v>
+        <v>-0.07082533234658175</v>
       </c>
       <c r="E30">
-        <v>-0.2510281578823688</v>
+        <v>-0.01941103540123337</v>
       </c>
       <c r="F30">
-        <v>0.1611687024481771</v>
+        <v>-0.1265945102977842</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1303,19 +1303,19 @@
         <v>34</v>
       </c>
       <c r="B31">
-        <v>0.0293494422365936</v>
+        <v>-0.04851424528655909</v>
       </c>
       <c r="C31">
-        <v>-0.05379581217859079</v>
+        <v>-0.01533385474708329</v>
       </c>
       <c r="D31">
-        <v>-0.00376732059876893</v>
+        <v>-0.02905736355741942</v>
       </c>
       <c r="E31">
-        <v>-0.01395961179158742</v>
+        <v>-0.02608537835861856</v>
       </c>
       <c r="F31">
-        <v>0.03625702011266209</v>
+        <v>0.00255894549067002</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1323,19 +1323,19 @@
         <v>35</v>
       </c>
       <c r="B32">
-        <v>0.05887304041520224</v>
+        <v>-0.04852203202452893</v>
       </c>
       <c r="C32">
-        <v>-0.003689118782659526</v>
+        <v>-0.001276181797981859</v>
       </c>
       <c r="D32">
-        <v>0.04186415174447667</v>
+        <v>-0.02216352717560136</v>
       </c>
       <c r="E32">
-        <v>0.05394043847582878</v>
+        <v>-0.02345127894287919</v>
       </c>
       <c r="F32">
-        <v>0.1070569217739221</v>
+        <v>-0.006585794977936803</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1343,19 +1343,19 @@
         <v>36</v>
       </c>
       <c r="B33">
-        <v>0.09229706999733063</v>
+        <v>-0.09241182506836587</v>
       </c>
       <c r="C33">
-        <v>-0.06558428605952715</v>
+        <v>-0.01124147615330948</v>
       </c>
       <c r="D33">
-        <v>0.02124858740042057</v>
+        <v>-0.08509164153525822</v>
       </c>
       <c r="E33">
-        <v>-0.0497923886675395</v>
+        <v>-0.04230201875929489</v>
       </c>
       <c r="F33">
-        <v>0.05809656875935795</v>
+        <v>-0.04403837675021295</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1363,19 +1363,19 @@
         <v>37</v>
       </c>
       <c r="B34">
-        <v>0.06784028137612272</v>
+        <v>-0.06928725752868861</v>
       </c>
       <c r="C34">
-        <v>-0.05223569927524623</v>
+        <v>-0.01364919411589375</v>
       </c>
       <c r="D34">
-        <v>0.04979328433964873</v>
+        <v>-0.08875353054905524</v>
       </c>
       <c r="E34">
-        <v>-0.0510165681332594</v>
+        <v>-0.0266128322338251</v>
       </c>
       <c r="F34">
-        <v>0.07752336312560862</v>
+        <v>-0.05381301716167564</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1383,19 +1383,19 @@
         <v>38</v>
       </c>
       <c r="B35">
-        <v>0.02043284553218021</v>
+        <v>-0.02435299090262718</v>
       </c>
       <c r="C35">
-        <v>-0.01934702792103303</v>
+        <v>-0.002459315857155659</v>
       </c>
       <c r="D35">
-        <v>0.002217505043299041</v>
+        <v>-0.009178637635201041</v>
       </c>
       <c r="E35">
-        <v>-0.01709961782586514</v>
+        <v>-0.01194606587306534</v>
       </c>
       <c r="F35">
-        <v>0.003029177943927725</v>
+        <v>-0.01279048480195992</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1403,19 +1403,19 @@
         <v>39</v>
       </c>
       <c r="B36">
-        <v>0.03050674139832717</v>
+        <v>-0.02648054642215169</v>
       </c>
       <c r="C36">
-        <v>-0.02070864673005346</v>
+        <v>-0.007233584438068184</v>
       </c>
       <c r="D36">
-        <v>-0.0153050689748446</v>
+        <v>-0.03819935418174637</v>
       </c>
       <c r="E36">
-        <v>-0.05968364350139386</v>
+        <v>-0.0161559953073591</v>
       </c>
       <c r="F36">
-        <v>0.06094384494061521</v>
+        <v>-0.01334946994036032</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1443,19 +1443,19 @@
         <v>41</v>
       </c>
       <c r="B38">
-        <v>0.02702915917542438</v>
+        <v>-0.00321728446313298</v>
       </c>
       <c r="C38">
-        <v>-0.05446967379976182</v>
+        <v>-0.0006178329484960236</v>
       </c>
       <c r="D38">
-        <v>-0.02054058705638536</v>
+        <v>-0.003731579674065322</v>
       </c>
       <c r="E38">
-        <v>-0.001643842740094958</v>
+        <v>-0.004530918131249057</v>
       </c>
       <c r="F38">
-        <v>-0.1298802326628261</v>
+        <v>0.003727072333832251</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1463,19 +1463,19 @@
         <v>42</v>
       </c>
       <c r="B39">
-        <v>0.09473297437753</v>
+        <v>-0.1123869247540978</v>
       </c>
       <c r="C39">
-        <v>-0.07715074389642966</v>
+        <v>-0.02010706778490185</v>
       </c>
       <c r="D39">
-        <v>0.1219643129069407</v>
+        <v>-0.141806387744903</v>
       </c>
       <c r="E39">
-        <v>-0.1773641100905747</v>
+        <v>-0.04801293729137415</v>
       </c>
       <c r="F39">
-        <v>0.06996036375441309</v>
+        <v>-0.04244261140841767</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1483,19 +1483,19 @@
         <v>43</v>
       </c>
       <c r="B40">
-        <v>0.02884200119564051</v>
+        <v>-0.03746452873191734</v>
       </c>
       <c r="C40">
-        <v>-0.06312447728575139</v>
+        <v>-0.008027451204327827</v>
       </c>
       <c r="D40">
-        <v>-0.02375014378759208</v>
+        <v>-0.02413544018160287</v>
       </c>
       <c r="E40">
-        <v>0.02336319332852403</v>
+        <v>-0.001949598103523323</v>
       </c>
       <c r="F40">
-        <v>0.1051026880861267</v>
+        <v>0.01425904296350236</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1503,19 +1503,19 @@
         <v>44</v>
       </c>
       <c r="B41">
-        <v>0.03124890941889431</v>
+        <v>-0.02642846209230797</v>
       </c>
       <c r="C41">
-        <v>-0.02451648588513963</v>
+        <v>-0.006869217984943062</v>
       </c>
       <c r="D41">
-        <v>0.02533856142464651</v>
+        <v>-0.01130041242439155</v>
       </c>
       <c r="E41">
-        <v>-0.01802327795714106</v>
+        <v>-0.01059394321079098</v>
       </c>
       <c r="F41">
-        <v>-0.0129813701429063</v>
+        <v>0.0120714618836599</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1543,19 +1543,19 @@
         <v>46</v>
       </c>
       <c r="B43">
-        <v>0.0475068003335427</v>
+        <v>-0.04330580680278982</v>
       </c>
       <c r="C43">
-        <v>-0.04902026781641766</v>
+        <v>-0.007394987410025701</v>
       </c>
       <c r="D43">
-        <v>-0.009582503323142392</v>
+        <v>-0.02086967423764861</v>
       </c>
       <c r="E43">
-        <v>-0.05590205701085631</v>
+        <v>-0.02532674490832642</v>
       </c>
       <c r="F43">
-        <v>-0.008586513105431088</v>
+        <v>0.01110153967788572</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1563,19 +1563,19 @@
         <v>47</v>
       </c>
       <c r="B44">
-        <v>0.0931005055420643</v>
+        <v>-0.07380919504855223</v>
       </c>
       <c r="C44">
-        <v>-0.07717227395302059</v>
+        <v>-0.0244704586062458</v>
       </c>
       <c r="D44">
-        <v>-0.06468494167765652</v>
+        <v>-0.09270596697713181</v>
       </c>
       <c r="E44">
-        <v>-0.02957303250675626</v>
+        <v>-0.06215137365242211</v>
       </c>
       <c r="F44">
-        <v>0.1441032561586013</v>
+        <v>-0.1857899651711083</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1603,19 +1603,19 @@
         <v>49</v>
       </c>
       <c r="B46">
-        <v>0.04211365786821423</v>
+        <v>-0.02407590660821819</v>
       </c>
       <c r="C46">
-        <v>-0.03909476001032355</v>
+        <v>-0.004300158667932894</v>
       </c>
       <c r="D46">
-        <v>-0.05173120672096105</v>
+        <v>-0.008179501025413203</v>
       </c>
       <c r="E46">
-        <v>0.004381422733186487</v>
+        <v>-0.02322167116913037</v>
       </c>
       <c r="F46">
-        <v>0.02791338136651026</v>
+        <v>0.003835277917209401</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1623,19 +1623,19 @@
         <v>50</v>
       </c>
       <c r="B47">
-        <v>0.05384695180108279</v>
+        <v>-0.05324938282819091</v>
       </c>
       <c r="C47">
-        <v>-0.0427964877305011</v>
+        <v>-0.003490614551577093</v>
       </c>
       <c r="D47">
-        <v>-0.00218361127764663</v>
+        <v>-0.01375174076057807</v>
       </c>
       <c r="E47">
-        <v>-0.02958571310538296</v>
+        <v>-0.02281916989725016</v>
       </c>
       <c r="F47">
-        <v>0.00153563829910858</v>
+        <v>0.04808702167884429</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1643,19 +1643,19 @@
         <v>51</v>
       </c>
       <c r="B48">
-        <v>0.04786275391863802</v>
+        <v>-0.04804116157609937</v>
       </c>
       <c r="C48">
-        <v>-0.01578752584104909</v>
+        <v>-0.003421681008754588</v>
       </c>
       <c r="D48">
-        <v>0.009748817103769191</v>
+        <v>-0.04167744636874467</v>
       </c>
       <c r="E48">
-        <v>-0.02767946983610135</v>
+        <v>0.00878762239104001</v>
       </c>
       <c r="F48">
-        <v>0.08525155133955287</v>
+        <v>-0.01932024835395131</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1663,19 +1663,19 @@
         <v>52</v>
       </c>
       <c r="B49">
-        <v>0.2371267323123265</v>
+        <v>-0.2078458302068547</v>
       </c>
       <c r="C49">
-        <v>-0.06160378070751898</v>
+        <v>-0.01725812542374187</v>
       </c>
       <c r="D49">
-        <v>0.04192942923527974</v>
+        <v>0.006127454264991447</v>
       </c>
       <c r="E49">
-        <v>0.1577335722408948</v>
+        <v>-0.04263196451178437</v>
       </c>
       <c r="F49">
-        <v>-0.2566224105000972</v>
+        <v>-0.03401889078148319</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1683,19 +1683,19 @@
         <v>53</v>
       </c>
       <c r="B50">
-        <v>0.03781110885799299</v>
+        <v>-0.04870912378157892</v>
       </c>
       <c r="C50">
-        <v>-0.04499910258558306</v>
+        <v>-0.01153361069326181</v>
       </c>
       <c r="D50">
-        <v>0.01167954538565509</v>
+        <v>-0.02836415923582724</v>
       </c>
       <c r="E50">
-        <v>-0.05404624367082739</v>
+        <v>-0.02815222111904968</v>
       </c>
       <c r="F50">
-        <v>0.0354359004637522</v>
+        <v>-0.005733704289954984</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1703,19 +1703,19 @@
         <v>54</v>
       </c>
       <c r="B51">
-        <v>0.03360616787328856</v>
+        <v>-0.003739674947360763</v>
       </c>
       <c r="C51">
-        <v>-0.003863530444839205</v>
+        <v>-0.0008719027804014761</v>
       </c>
       <c r="D51">
-        <v>0.002893998255011683</v>
+        <v>0.001448856619981906</v>
       </c>
       <c r="E51">
-        <v>0.03755470725968336</v>
+        <v>-0.001777888359410004</v>
       </c>
       <c r="F51">
-        <v>-0.04450632036339213</v>
+        <v>-0.004125689930049969</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1723,19 +1723,19 @@
         <v>55</v>
       </c>
       <c r="B52">
-        <v>0.01398322965001871</v>
+        <v>-0.1404966169191821</v>
       </c>
       <c r="C52">
-        <v>-0.006337434677898488</v>
+        <v>-0.01251866116473622</v>
       </c>
       <c r="D52">
-        <v>0.0216096719858963</v>
+        <v>-0.05305082362047303</v>
       </c>
       <c r="E52">
-        <v>-0.01417973539450262</v>
+        <v>-0.01516938020027841</v>
       </c>
       <c r="F52">
-        <v>0.01281074508020603</v>
+        <v>-0.02794117344867108</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1743,19 +1743,19 @@
         <v>56</v>
       </c>
       <c r="B53">
-        <v>0.1452103017265672</v>
+        <v>-0.1725640561935799</v>
       </c>
       <c r="C53">
-        <v>-0.05797828570581249</v>
+        <v>-0.01522074784817765</v>
       </c>
       <c r="D53">
-        <v>-0.01096589295423474</v>
+        <v>-0.02120377710286923</v>
       </c>
       <c r="E53">
-        <v>-0.01839174623849973</v>
+        <v>-0.0390602704626974</v>
       </c>
       <c r="F53">
-        <v>-0.1039826986664053</v>
+        <v>-0.05475777638524142</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1763,19 +1763,19 @@
         <v>57</v>
       </c>
       <c r="B54">
-        <v>0.0603800204276915</v>
+        <v>-0.02214826694887647</v>
       </c>
       <c r="C54">
-        <v>-0.03224052910046241</v>
+        <v>-0.01311818424090494</v>
       </c>
       <c r="D54">
-        <v>-0.01283606818654858</v>
+        <v>-0.02794342234311717</v>
       </c>
       <c r="E54">
-        <v>-0.04473023419366581</v>
+        <v>-0.01541005867690818</v>
       </c>
       <c r="F54">
-        <v>0.1364223340475925</v>
+        <v>-0.001181799638286604</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1783,19 +1783,19 @@
         <v>58</v>
       </c>
       <c r="B55">
-        <v>0.08176769627251126</v>
+        <v>-0.1140084844380814</v>
       </c>
       <c r="C55">
-        <v>-0.04808052442421551</v>
+        <v>-0.01432766358829973</v>
       </c>
       <c r="D55">
-        <v>0.03149860953462016</v>
+        <v>-0.01861370809798142</v>
       </c>
       <c r="E55">
-        <v>-0.004442634165028873</v>
+        <v>-0.02989202402344899</v>
       </c>
       <c r="F55">
-        <v>-0.02532511285832766</v>
+        <v>-0.04570456045266811</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1803,19 +1803,19 @@
         <v>59</v>
       </c>
       <c r="B56">
-        <v>0.1372972354998526</v>
+        <v>-0.1767868614297543</v>
       </c>
       <c r="C56">
-        <v>-0.09116298293888052</v>
+        <v>-0.01264861133786652</v>
       </c>
       <c r="D56">
-        <v>0.01934672148248107</v>
+        <v>-0.02028902531424462</v>
       </c>
       <c r="E56">
-        <v>-0.02112413899428325</v>
+        <v>-0.04317517729743679</v>
       </c>
       <c r="F56">
-        <v>-0.06353924829763791</v>
+        <v>-0.02349836873691611</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1843,19 +1843,19 @@
         <v>61</v>
       </c>
       <c r="B58">
-        <v>0.03553221562861208</v>
+        <v>-0.04737566978346446</v>
       </c>
       <c r="C58">
-        <v>-0.02803648940314156</v>
+        <v>-0.003908254752735483</v>
       </c>
       <c r="D58">
-        <v>-0.03293163688163803</v>
+        <v>-0.05943060614731556</v>
       </c>
       <c r="E58">
-        <v>-0.03274551995897195</v>
+        <v>-0.01293351791914952</v>
       </c>
       <c r="F58">
-        <v>0.01593109562445751</v>
+        <v>0.0425992339661516</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1863,19 +1863,19 @@
         <v>62</v>
       </c>
       <c r="B59">
-        <v>0.2132907615338463</v>
+        <v>-0.1703088887507368</v>
       </c>
       <c r="C59">
-        <v>0.2422009229153595</v>
+        <v>-0.01191325845656679</v>
       </c>
       <c r="D59">
-        <v>0.04679024613730035</v>
+        <v>0.2347891112436702</v>
       </c>
       <c r="E59">
-        <v>0.04460233592545163</v>
+        <v>0.04647208940308708</v>
       </c>
       <c r="F59">
-        <v>0.007061265073026795</v>
+        <v>0.02855652620447933</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1883,19 +1883,19 @@
         <v>63</v>
       </c>
       <c r="B60">
-        <v>0.2348206235834771</v>
+        <v>-0.2404865958440048</v>
       </c>
       <c r="C60">
-        <v>-0.137785453646446</v>
+        <v>0.004294274247748954</v>
       </c>
       <c r="D60">
-        <v>0.07950946673881096</v>
+        <v>-0.05720865041194294</v>
       </c>
       <c r="E60">
-        <v>0.0707284331148746</v>
+        <v>-0.01297852848072985</v>
       </c>
       <c r="F60">
-        <v>-0.1062003204244183</v>
+        <v>0.04750183745018259</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1903,19 +1903,19 @@
         <v>64</v>
       </c>
       <c r="B61">
-        <v>0.09361206644416441</v>
+        <v>-0.0862713163092266</v>
       </c>
       <c r="C61">
-        <v>-0.06631866495034593</v>
+        <v>-0.01529186700173834</v>
       </c>
       <c r="D61">
-        <v>0.06840680233169719</v>
+        <v>-0.1026130984440922</v>
       </c>
       <c r="E61">
-        <v>-0.1218933855774916</v>
+        <v>-0.03338423098880245</v>
       </c>
       <c r="F61">
-        <v>0.09261339337483374</v>
+        <v>-0.0272684961645144</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1923,19 +1923,19 @@
         <v>65</v>
       </c>
       <c r="B62">
-        <v>0.1329169314280518</v>
+        <v>-0.1682571026882574</v>
       </c>
       <c r="C62">
-        <v>-0.07805271577488876</v>
+        <v>-0.01642126610881941</v>
       </c>
       <c r="D62">
-        <v>0.007213886270923444</v>
+        <v>-0.01911526321714146</v>
       </c>
       <c r="E62">
-        <v>-0.003334228202787169</v>
+        <v>-0.03867371599006579</v>
       </c>
       <c r="F62">
-        <v>-0.07058679213148539</v>
+        <v>-0.009125463915818316</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1943,19 +1943,19 @@
         <v>66</v>
       </c>
       <c r="B63">
-        <v>0.04439279060757952</v>
+        <v>-0.0429116618693246</v>
       </c>
       <c r="C63">
-        <v>-0.01758736528310068</v>
+        <v>-0.004679108668114933</v>
       </c>
       <c r="D63">
-        <v>0.009023772401685589</v>
+        <v>-0.0438962624898209</v>
       </c>
       <c r="E63">
-        <v>-0.06086654098993081</v>
+        <v>-0.01330921395486965</v>
       </c>
       <c r="F63">
-        <v>0.04240644704444655</v>
+        <v>-0.01381899246389344</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1963,19 +1963,19 @@
         <v>67</v>
       </c>
       <c r="B64">
-        <v>0.09760324818654863</v>
+        <v>-0.1122931665197123</v>
       </c>
       <c r="C64">
-        <v>-0.05688403457576621</v>
+        <v>-0.01223828051109123</v>
       </c>
       <c r="D64">
-        <v>0.001347180848094832</v>
+        <v>-0.03797781140023097</v>
       </c>
       <c r="E64">
-        <v>-0.06838750604078815</v>
+        <v>-0.01887776007481185</v>
       </c>
       <c r="F64">
-        <v>0.0355090689626068</v>
+        <v>-0.01587779069421291</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1983,19 +1983,19 @@
         <v>68</v>
       </c>
       <c r="B65">
-        <v>0.1216974145670954</v>
+        <v>-0.1421771650315442</v>
       </c>
       <c r="C65">
-        <v>-0.03767965086699764</v>
+        <v>-0.03047820849881054</v>
       </c>
       <c r="D65">
-        <v>0.02562597366875679</v>
+        <v>0.04342897503374918</v>
       </c>
       <c r="E65">
-        <v>-0.07065513597949649</v>
+        <v>-0.003005800821109433</v>
       </c>
       <c r="F65">
-        <v>0.04413054897063954</v>
+        <v>-0.0397723518399912</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -2003,19 +2003,19 @@
         <v>69</v>
       </c>
       <c r="B66">
-        <v>0.1061730568690224</v>
+        <v>-0.1345213101200288</v>
       </c>
       <c r="C66">
-        <v>-0.1125980727190057</v>
+        <v>-0.01760240335305311</v>
       </c>
       <c r="D66">
-        <v>0.1187582200462616</v>
+        <v>-0.1294910935855006</v>
       </c>
       <c r="E66">
-        <v>-0.1630617890547648</v>
+        <v>-0.0580044559561516</v>
       </c>
       <c r="F66">
-        <v>0.05790886939929452</v>
+        <v>-0.04591462260938006</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -2023,19 +2023,19 @@
         <v>70</v>
       </c>
       <c r="B67">
-        <v>0.08134865418316307</v>
+        <v>-0.06581861726121159</v>
       </c>
       <c r="C67">
-        <v>-0.06727621454511033</v>
+        <v>-0.0044989730030263</v>
       </c>
       <c r="D67">
-        <v>-0.02224454052156797</v>
+        <v>-0.05610623181442109</v>
       </c>
       <c r="E67">
-        <v>-0.03785332378281812</v>
+        <v>-0.01957651036073805</v>
       </c>
       <c r="F67">
-        <v>-0.1231322412505357</v>
+        <v>0.04361928673782432</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -2043,19 +2043,19 @@
         <v>71</v>
       </c>
       <c r="B68">
-        <v>0.1287199562804887</v>
+        <v>-0.1105601054704692</v>
       </c>
       <c r="C68">
-        <v>0.2729589296277135</v>
+        <v>-0.02092406168209541</v>
       </c>
       <c r="D68">
-        <v>0.01656879723316246</v>
+        <v>0.2754480106933675</v>
       </c>
       <c r="E68">
-        <v>-0.04547488063597177</v>
+        <v>0.08519629452383808</v>
       </c>
       <c r="F68">
-        <v>0.02050972577012675</v>
+        <v>-0.05197660923287832</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -2063,19 +2063,19 @@
         <v>72</v>
       </c>
       <c r="B69">
-        <v>0.0442287076164584</v>
+        <v>-0.04071319103344121</v>
       </c>
       <c r="C69">
-        <v>-0.01822342013808367</v>
+        <v>-0.001203745719008301</v>
       </c>
       <c r="D69">
-        <v>-0.00874306921617889</v>
+        <v>-0.008405478937552618</v>
       </c>
       <c r="E69">
-        <v>-0.03267770951201236</v>
+        <v>-0.0261849096641228</v>
       </c>
       <c r="F69">
-        <v>-0.02758678232790952</v>
+        <v>0.01711870487235449</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -2083,19 +2083,19 @@
         <v>73</v>
       </c>
       <c r="B70">
-        <v>0.05621597055641302</v>
+        <v>-0.06514330905240136</v>
       </c>
       <c r="C70">
-        <v>-0.05631510716215669</v>
+        <v>0.02679474438944148</v>
       </c>
       <c r="D70">
-        <v>0.0277970344508077</v>
+        <v>-0.004396268299816513</v>
       </c>
       <c r="E70">
-        <v>-0.04035683236763957</v>
+        <v>0.04343414232352243</v>
       </c>
       <c r="F70">
-        <v>0.03124066271420822</v>
+        <v>0.3346701620073249</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -2103,19 +2103,19 @@
         <v>74</v>
       </c>
       <c r="B71">
-        <v>0.1467202750379783</v>
+        <v>-0.1293513604714373</v>
       </c>
       <c r="C71">
-        <v>0.2787973231498453</v>
+        <v>-0.02440401230889773</v>
       </c>
       <c r="D71">
-        <v>0.01115398812645643</v>
+        <v>0.2911825629945659</v>
       </c>
       <c r="E71">
-        <v>-0.05708430855235819</v>
+        <v>0.09271297862594566</v>
       </c>
       <c r="F71">
-        <v>0.02872887224832986</v>
+        <v>-0.05487515925994504</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -2123,19 +2123,19 @@
         <v>75</v>
       </c>
       <c r="B72">
-        <v>0.1261622397013877</v>
+        <v>-0.1382587754937306</v>
       </c>
       <c r="C72">
-        <v>-0.02916700577301997</v>
+        <v>-0.02395614646583955</v>
       </c>
       <c r="D72">
-        <v>0.01056288050185273</v>
+        <v>-0.01084114534205618</v>
       </c>
       <c r="E72">
-        <v>-0.07067964126443098</v>
+        <v>-0.04219898136407883</v>
       </c>
       <c r="F72">
-        <v>-0.01172713838126573</v>
+        <v>-0.02444791159539336</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -2143,19 +2143,19 @@
         <v>76</v>
       </c>
       <c r="B73">
-        <v>0.2195501933340142</v>
+        <v>-0.2105246580880898</v>
       </c>
       <c r="C73">
-        <v>-0.1308685925110806</v>
+        <v>-0.01172902983481398</v>
       </c>
       <c r="D73">
-        <v>0.146100235334155</v>
+        <v>-0.02550794361822796</v>
       </c>
       <c r="E73">
-        <v>0.2080818451679937</v>
+        <v>-0.07246207256651331</v>
       </c>
       <c r="F73">
-        <v>-0.4325580340102217</v>
+        <v>-0.02036481739257016</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -2163,19 +2163,19 @@
         <v>77</v>
       </c>
       <c r="B74">
-        <v>0.08681026130270901</v>
+        <v>-0.0939671256274876</v>
       </c>
       <c r="C74">
-        <v>-0.08723187387064874</v>
+        <v>-0.01168915131428054</v>
       </c>
       <c r="D74">
-        <v>0.007044526356417952</v>
+        <v>-0.02982750354433844</v>
       </c>
       <c r="E74">
-        <v>-0.04583834415845447</v>
+        <v>-0.05225674380111348</v>
       </c>
       <c r="F74">
-        <v>-0.08204954243044787</v>
+        <v>-0.03875000738293571</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2183,19 +2183,19 @@
         <v>78</v>
       </c>
       <c r="B75">
-        <v>0.08659877883427214</v>
+        <v>-0.1297590388133402</v>
       </c>
       <c r="C75">
-        <v>-0.0624248493816583</v>
+        <v>-0.02591747851707927</v>
       </c>
       <c r="D75">
-        <v>0.0060262525813078</v>
+        <v>-0.04030492695923894</v>
       </c>
       <c r="E75">
-        <v>-0.008162104354954179</v>
+        <v>-0.05967190452154451</v>
       </c>
       <c r="F75">
-        <v>-0.02032339769330543</v>
+        <v>-0.004470120716113917</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2203,19 +2203,19 @@
         <v>79</v>
       </c>
       <c r="B76">
-        <v>0.08090854071099156</v>
+        <v>-0.00937646823557277</v>
       </c>
       <c r="C76">
-        <v>-0.07910522227131342</v>
+        <v>-0.002086041995735498</v>
       </c>
       <c r="D76">
-        <v>-0.001443334300867165</v>
+        <v>-0.004400116447822644</v>
       </c>
       <c r="E76">
-        <v>0.01998496721082418</v>
+        <v>-0.009736051713031371</v>
       </c>
       <c r="F76">
-        <v>-0.06077364137941502</v>
+        <v>-0.002891906629920028</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2223,19 +2223,19 @@
         <v>80</v>
       </c>
       <c r="B77">
-        <v>0.06804275553952244</v>
+        <v>-0.08136989142980146</v>
       </c>
       <c r="C77">
-        <v>-0.01413985152434731</v>
+        <v>-0.01223203704667196</v>
       </c>
       <c r="D77">
-        <v>0.03976866986958476</v>
+        <v>-0.09738808979718189</v>
       </c>
       <c r="E77">
-        <v>-0.0881538717144878</v>
+        <v>-0.03017139439091015</v>
       </c>
       <c r="F77">
-        <v>0.2511420079236195</v>
+        <v>-0.0416797326472843</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2243,19 +2243,19 @@
         <v>81</v>
       </c>
       <c r="B78">
-        <v>0.1905578967491476</v>
+        <v>-0.1110242174724125</v>
       </c>
       <c r="C78">
-        <v>-0.1467499984650648</v>
+        <v>-0.04479333825193214</v>
       </c>
       <c r="D78">
-        <v>-0.165802255449478</v>
+        <v>-0.1159032021930949</v>
       </c>
       <c r="E78">
-        <v>0.4737544959171816</v>
+        <v>-0.09069395724353971</v>
       </c>
       <c r="F78">
-        <v>0.4332998546706496</v>
+        <v>-0.07711663900766198</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2263,19 +2263,19 @@
         <v>82</v>
       </c>
       <c r="B79">
-        <v>0.1299161467909196</v>
+        <v>-0.1621443219795704</v>
       </c>
       <c r="C79">
-        <v>-0.07845717337426218</v>
+        <v>-0.01996413725392295</v>
       </c>
       <c r="D79">
-        <v>-0.007991789807669786</v>
+        <v>-0.0247203314954746</v>
       </c>
       <c r="E79">
-        <v>-0.02228419361243998</v>
+        <v>-0.04919776469562036</v>
       </c>
       <c r="F79">
-        <v>-0.03685418779526739</v>
+        <v>-0.002960590577940273</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2283,19 +2283,19 @@
         <v>83</v>
       </c>
       <c r="B80">
-        <v>0.06941231809374777</v>
+        <v>-0.08010192650343696</v>
       </c>
       <c r="C80">
-        <v>-0.03999177021457501</v>
+        <v>0.001299957260496601</v>
       </c>
       <c r="D80">
-        <v>0.07689082535525318</v>
+        <v>-0.05242495794009568</v>
       </c>
       <c r="E80">
-        <v>-0.07883377739576139</v>
+        <v>-0.0277162434580423</v>
       </c>
       <c r="F80">
-        <v>-0.007125795740002799</v>
+        <v>0.01043814207405206</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2303,19 +2303,19 @@
         <v>84</v>
       </c>
       <c r="B81">
-        <v>0.1198895212955425</v>
+        <v>-0.1217718812310265</v>
       </c>
       <c r="C81">
-        <v>-0.04838280267214487</v>
+        <v>-0.02957499962601403</v>
       </c>
       <c r="D81">
-        <v>-0.01094094168929335</v>
+        <v>-0.03027809374491806</v>
       </c>
       <c r="E81">
-        <v>-0.05613768238689847</v>
+        <v>-0.059018426353852</v>
       </c>
       <c r="F81">
-        <v>0.004543260306042889</v>
+        <v>0.006449190024221479</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2323,19 +2323,19 @@
         <v>85</v>
       </c>
       <c r="B82">
-        <v>0.1202873299970436</v>
+        <v>-0.162308645569386</v>
       </c>
       <c r="C82">
-        <v>-0.0586572074053904</v>
+        <v>-0.02038659851725816</v>
       </c>
       <c r="D82">
-        <v>0.003812787095307305</v>
+        <v>-0.02366511489321911</v>
       </c>
       <c r="E82">
-        <v>-0.06643402096797862</v>
+        <v>-0.03544646905375331</v>
       </c>
       <c r="F82">
-        <v>-0.06382042515197538</v>
+        <v>-0.04913814841884823</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2343,19 +2343,19 @@
         <v>86</v>
       </c>
       <c r="B83">
-        <v>0.08537189554695679</v>
+        <v>-0.06628384126393612</v>
       </c>
       <c r="C83">
-        <v>-0.08262572161451771</v>
+        <v>-0.004442311201258318</v>
       </c>
       <c r="D83">
-        <v>0.01075407198344052</v>
+        <v>-0.04568610674028596</v>
       </c>
       <c r="E83">
-        <v>-0.09004497029303674</v>
+        <v>-0.003090253719362113</v>
       </c>
       <c r="F83">
-        <v>-0.04467627822125816</v>
+        <v>0.02965330920209559</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2363,19 +2363,19 @@
         <v>87</v>
       </c>
       <c r="B84">
-        <v>0.0429713243714154</v>
+        <v>-0.06095035134137566</v>
       </c>
       <c r="C84">
-        <v>0.05227074196826555</v>
+        <v>-0.01204093777525299</v>
       </c>
       <c r="D84">
-        <v>0.04016069807739493</v>
+        <v>-0.05793606165421322</v>
       </c>
       <c r="E84">
-        <v>0.1329658691529954</v>
+        <v>0.003814013165677799</v>
       </c>
       <c r="F84">
-        <v>0.1741188191483548</v>
+        <v>-0.01521663633967398</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2383,19 +2383,19 @@
         <v>88</v>
       </c>
       <c r="B85">
-        <v>0.1197228009220313</v>
+        <v>-0.1374891926519352</v>
       </c>
       <c r="C85">
-        <v>-0.05402946855490663</v>
+        <v>-0.0251962417893431</v>
       </c>
       <c r="D85">
-        <v>0.008883246226139705</v>
+        <v>-0.02292272223895016</v>
       </c>
       <c r="E85">
-        <v>-0.03021730121867003</v>
+        <v>-0.04116964865499356</v>
       </c>
       <c r="F85">
-        <v>-0.05733819524789259</v>
+        <v>-0.03692528920635326</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2403,19 +2403,19 @@
         <v>89</v>
       </c>
       <c r="B86">
-        <v>0.08662954869400871</v>
+        <v>-0.1000504704581212</v>
       </c>
       <c r="C86">
-        <v>-0.01014637320856007</v>
+        <v>0.006427314695686758</v>
       </c>
       <c r="D86">
-        <v>-0.02375147254615584</v>
+        <v>-0.00821988635577142</v>
       </c>
       <c r="E86">
-        <v>0.5027506317549498</v>
+        <v>-0.1285732095835045</v>
       </c>
       <c r="F86">
-        <v>0.1921560265482907</v>
+        <v>0.8291464942012704</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2423,19 +2423,19 @@
         <v>90</v>
       </c>
       <c r="B87">
-        <v>0.1174481592707057</v>
+        <v>-0.1020476564383296</v>
       </c>
       <c r="C87">
-        <v>-0.06505410166041019</v>
+        <v>-0.02620507890854207</v>
       </c>
       <c r="D87">
-        <v>-0.01972729613792921</v>
+        <v>-0.06818535975594746</v>
       </c>
       <c r="E87">
-        <v>-0.02630214513202152</v>
+        <v>0.05246287851612125</v>
       </c>
       <c r="F87">
-        <v>0.0813902067325976</v>
+        <v>-0.09440862389068358</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2443,19 +2443,19 @@
         <v>91</v>
       </c>
       <c r="B88">
-        <v>0.06071366865768798</v>
+        <v>-0.06050641253480529</v>
       </c>
       <c r="C88">
-        <v>-0.06009266869531998</v>
+        <v>-0.003773534337025907</v>
       </c>
       <c r="D88">
-        <v>0.03671253808910301</v>
+        <v>-0.0577226548542361</v>
       </c>
       <c r="E88">
-        <v>-0.02962115855643411</v>
+        <v>-0.02377287781725308</v>
       </c>
       <c r="F88">
-        <v>-0.004667219406575716</v>
+        <v>-0.007219903842022127</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2463,19 +2463,19 @@
         <v>92</v>
       </c>
       <c r="B89">
-        <v>0.2323128112937962</v>
+        <v>-0.1319467172192304</v>
       </c>
       <c r="C89">
-        <v>0.3699448880578683</v>
+        <v>-0.003614900731456326</v>
       </c>
       <c r="D89">
-        <v>-0.04888081744756283</v>
+        <v>0.2788549207870839</v>
       </c>
       <c r="E89">
-        <v>0.03494849346840007</v>
+        <v>0.09096015759902334</v>
       </c>
       <c r="F89">
-        <v>-0.006437091924493096</v>
+        <v>-0.03674637005090941</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2483,19 +2483,19 @@
         <v>93</v>
       </c>
       <c r="B90">
-        <v>0.1559244895058694</v>
+        <v>-0.1404301695988372</v>
       </c>
       <c r="C90">
-        <v>0.2606078303308562</v>
+        <v>-0.0204299339954188</v>
       </c>
       <c r="D90">
-        <v>0.009777768630870896</v>
+        <v>0.2769550025687312</v>
       </c>
       <c r="E90">
-        <v>-0.02660310361924127</v>
+        <v>0.105077041551817</v>
       </c>
       <c r="F90">
-        <v>-0.001255761660538029</v>
+        <v>-0.04213163135960397</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2503,19 +2503,19 @@
         <v>94</v>
       </c>
       <c r="B91">
-        <v>0.07429244828424388</v>
+        <v>-0.1166398312517163</v>
       </c>
       <c r="C91">
-        <v>-0.06073342583624377</v>
+        <v>-0.01585968930131683</v>
       </c>
       <c r="D91">
-        <v>-0.005787915129851211</v>
+        <v>-0.004753455087878648</v>
       </c>
       <c r="E91">
-        <v>0.01935186144094704</v>
+        <v>-0.05956762913888885</v>
       </c>
       <c r="F91">
-        <v>-0.00231956427159241</v>
+        <v>0.03323288951580693</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2523,19 +2523,19 @@
         <v>95</v>
       </c>
       <c r="B92">
-        <v>0.1693000504557435</v>
+        <v>-0.1443530361825621</v>
       </c>
       <c r="C92">
-        <v>0.2971065200287147</v>
+        <v>-0.01128804966597872</v>
       </c>
       <c r="D92">
-        <v>-0.03067418068063208</v>
+        <v>0.3125643173318283</v>
       </c>
       <c r="E92">
-        <v>-0.02272698562965554</v>
+        <v>0.0992874412283571</v>
       </c>
       <c r="F92">
-        <v>0.03908805613548016</v>
+        <v>-0.03249262559842391</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2543,19 +2543,19 @@
         <v>96</v>
       </c>
       <c r="B93">
-        <v>0.1709672759791787</v>
+        <v>-0.1457195886553241</v>
       </c>
       <c r="C93">
-        <v>0.3061604255405052</v>
+        <v>-0.01670483230769605</v>
       </c>
       <c r="D93">
-        <v>0.04054117877459806</v>
+        <v>0.2805923660135751</v>
       </c>
       <c r="E93">
-        <v>-0.006610696312293481</v>
+        <v>0.06974431821784208</v>
       </c>
       <c r="F93">
-        <v>0.007984424741924838</v>
+        <v>-0.03120389141648163</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2563,19 +2563,19 @@
         <v>97</v>
       </c>
       <c r="B94">
-        <v>0.1151819366309337</v>
+        <v>-0.1332795605614757</v>
       </c>
       <c r="C94">
-        <v>-0.08206208859922753</v>
+        <v>-0.02343178917907732</v>
       </c>
       <c r="D94">
-        <v>-0.004746438591107372</v>
+        <v>-0.0523997406227647</v>
       </c>
       <c r="E94">
-        <v>-0.01097092269499401</v>
+        <v>-0.06170527778040543</v>
       </c>
       <c r="F94">
-        <v>-0.05617315162125788</v>
+        <v>-0.02294786973004308</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2583,19 +2583,19 @@
         <v>98</v>
       </c>
       <c r="B95">
-        <v>0.1463616473655336</v>
+        <v>-0.1275718258057501</v>
       </c>
       <c r="C95">
-        <v>-0.05918364618452526</v>
+        <v>-0.006718654188918378</v>
       </c>
       <c r="D95">
-        <v>-0.01435264237609019</v>
+        <v>-0.08690553665558039</v>
       </c>
       <c r="E95">
-        <v>0.03907997224711296</v>
+        <v>-0.03985887387463037</v>
       </c>
       <c r="F95">
-        <v>0.0903393995420286</v>
+        <v>0.007181318762720245</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2603,19 +2603,19 @@
         <v>99</v>
       </c>
       <c r="B96">
-        <v>0</v>
+        <v>-0.09473093836696797</v>
       </c>
       <c r="C96">
-        <v>0</v>
+        <v>0.9894090235857796</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>0.01161117539552782</v>
       </c>
       <c r="E96">
-        <v>0</v>
+        <v>-0.06080151850115237</v>
       </c>
       <c r="F96">
-        <v>0</v>
+        <v>-0.05029398816648636</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2623,19 +2623,19 @@
         <v>100</v>
       </c>
       <c r="B97">
-        <v>0.1181652296381754</v>
+        <v>-0.1871639123176995</v>
       </c>
       <c r="C97">
-        <v>0.0158684473460645</v>
+        <v>0.01283466714223049</v>
       </c>
       <c r="D97">
-        <v>-0.01258563924791985</v>
+        <v>0.007468100083305084</v>
       </c>
       <c r="E97">
-        <v>-0.3291333651652197</v>
+        <v>-0.0137376783921394</v>
       </c>
       <c r="F97">
-        <v>0.005915493160310813</v>
+        <v>0.16847502009477</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2643,19 +2643,19 @@
         <v>101</v>
       </c>
       <c r="B98">
-        <v>0.2552724001400073</v>
+        <v>-0.2077611747283871</v>
       </c>
       <c r="C98">
-        <v>-0.1250929286835168</v>
+        <v>-0.007434864764295885</v>
       </c>
       <c r="D98">
-        <v>-0.05397581087858164</v>
+        <v>-0.01677434092415574</v>
       </c>
       <c r="E98">
-        <v>0.1547838311914554</v>
+        <v>0.08637587095279352</v>
       </c>
       <c r="F98">
-        <v>-0.226600346085889</v>
+        <v>0.1450421607902611</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2663,19 +2663,19 @@
         <v>102</v>
       </c>
       <c r="B99">
-        <v>0.0746007109423964</v>
+        <v>-0.05786761792598457</v>
       </c>
       <c r="C99">
-        <v>-0.05715081888789254</v>
+        <v>0.002876375390307349</v>
       </c>
       <c r="D99">
-        <v>-0.01418747651405873</v>
+        <v>-0.02962425142802529</v>
       </c>
       <c r="E99">
-        <v>0.02309552955866039</v>
+        <v>-0.02586277254212726</v>
       </c>
       <c r="F99">
-        <v>-0.03153309128202356</v>
+        <v>-0.005526063526308929</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2683,19 +2683,19 @@
         <v>103</v>
       </c>
       <c r="B100">
-        <v>0</v>
+        <v>-0.1233939576522489</v>
       </c>
       <c r="C100">
-        <v>0</v>
+        <v>0.04744185548550554</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>-0.3229133061903968</v>
       </c>
       <c r="E100">
-        <v>0</v>
+        <v>0.9070854394434729</v>
       </c>
       <c r="F100">
-        <v>0</v>
+        <v>0.05977638015404999</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2703,19 +2703,19 @@
         <v>104</v>
       </c>
       <c r="B101">
-        <v>0.04191248110896</v>
+        <v>-0.02717208627229588</v>
       </c>
       <c r="C101">
-        <v>-0.0252884951846481</v>
+        <v>-0.009416260637566849</v>
       </c>
       <c r="D101">
-        <v>0.0059055587781224</v>
+        <v>-0.02468061086841308</v>
       </c>
       <c r="E101">
-        <v>-0.02545964389013955</v>
+        <v>-0.008109857283378673</v>
       </c>
       <c r="F101">
-        <v>0.04133637829522618</v>
+        <v>0.008846133257278342</v>
       </c>
     </row>
     <row r="102" spans="1:6">
